--- a/biology/Zoologie/Ekapa_curvipes/Ekapa_curvipes.xlsx
+++ b/biology/Zoologie/Ekapa_curvipes/Ekapa_curvipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekapa curvipes, unique représentant du genre Ekapa, est une espèce d'araignées mygalomorphes de la famille des Entypesidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekapa curvipes, unique représentant du genre Ekapa, est une espèce d'araignées mygalomorphes de la famille des Entypesidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud[1],[2]. Elle se rencontre vers la péninsule du Cap.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud,. Elle se rencontre vers la péninsule du Cap.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 17 mm[3].
-La femelle décrite par Tucker en 1917 mesure 17,5 mm[4].
-Le mâle décrit par Ríos-Tamayo, Lyle et Sole en 2023 mesure 14,74 mm et la femelle 17,61 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 17 mm.
+La femelle décrite par Tucker en 1917 mesure 17,5 mm.
+Le mâle décrit par Ríos-Tamayo, Lyle et Sole en 2023 mesure 14,74 mm et la femelle 17,61 mm.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hermacha curvipes par Purcell en 1902. Elle est placée dans le genre Ekapa par Ríos-Tamayo, Lyle et Sole en 2023[2].
-Hermacha nigra[4] a été placée en synonymie par Ríos-Tamayo, Lyle et Sole en 2023[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hermacha curvipes par Purcell en 1902. Elle est placée dans le genre Ekapa par Ríos-Tamayo, Lyle et Sole en 2023.
+Hermacha nigra a été placée en synonymie par Ríos-Tamayo, Lyle et Sole en 2023.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Purcell, 1902 : « New South African trap-door spiders of the family Ctenizidae in the collection of the South African Museum. » Transactions of the South African Philosophical Society, vol. 11, p. 348-382 (texte intégral).
 Ríos-Tamayo, Lyle &amp; Sole, 2023 : « Ekapa, a new genus of mygalomorph spiders (Araneae, Entypesidae) from South Africa. » African Invertebrates, vol. 64, no 1, p. 1-12 (texte intégral).</t>
